--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Migrating Task\Training material_migrated\DemoS_009\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF400C1-E869-4B3C-8538-F45D931577E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31EECF-41D2-4ED7-BBD1-3246FB93141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELC" sheetId="4" r:id="rId1"/>
@@ -26,12 +26,15 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +42,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0">
+    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -392,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0">
+    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -485,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0">
+    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0">
+    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -573,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0">
+    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -821,12 +824,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I15" authorId="0" shapeId="0">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -850,7 +853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0" shapeId="0">
+    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -864,7 +867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -888,7 +891,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="0" shapeId="0">
+    <comment ref="J16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -902,7 +905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -926,7 +929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -940,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -964,7 +967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J18" authorId="0" shapeId="0">
+    <comment ref="J18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -978,7 +981,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1002,7 +1005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J19" authorId="0" shapeId="0">
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1016,7 +1019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1040,7 +1043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J20" authorId="0" shapeId="0">
+    <comment ref="J20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1054,7 +1057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0">
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1078,7 +1081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J27" authorId="0" shapeId="0">
+    <comment ref="J27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0">
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0">
+    <comment ref="J28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1130,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0">
+    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1154,7 +1157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="0" shapeId="0">
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0">
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J30" authorId="0" shapeId="0">
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1230,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J31" authorId="0" shapeId="0">
+    <comment ref="J31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
       <text>
         <r>
           <rPr>
@@ -1244,7 +1247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0" shapeId="0">
+    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -1268,7 +1271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0" shapeId="0">
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -1287,14 +1290,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1408,7 +1411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1434,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1507,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1560,7 +1563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1593,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1686,7 +1689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0">
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1711,7 +1714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0">
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1774,7 +1777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0">
+    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -2022,7 +2025,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="272">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2790,17 +2793,65 @@
   </si>
   <si>
     <t>BPkm</t>
+  </si>
+  <si>
+    <t>ELC-BASED-H2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>ELCRNWIN02</t>
+  </si>
+  <si>
+    <t>ELCRNSOL02</t>
+  </si>
+  <si>
+    <t>ELC_INTER</t>
+  </si>
+  <si>
+    <t>GAS-BASED-H2</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>ENV_ACT~INDCO2</t>
+  </si>
+  <si>
+    <t>GAS-BASED-H2-CCS</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>TPUBH2_1</t>
+  </si>
+  <si>
+    <t>TRAH2</t>
+  </si>
+  <si>
+    <t>Demand Technologies Transport Sector - New Pub - H2</t>
+  </si>
+  <si>
+    <t>FTE-H2</t>
+  </si>
+  <si>
+    <t>CONVERTING H2 TO TRAH2</t>
+  </si>
+  <si>
+    <t>NRG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="0.0"/>
-    <numFmt numFmtId="209" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -2886,6 +2937,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3100,7 +3152,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
@@ -3276,8 +3328,8 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3319,7 +3371,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -3328,79 +3380,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="209" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="209" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="209" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="209" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="209" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="209" fontId="21" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="209" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="209" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="209" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="209" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="209" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="209" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="209" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="209" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="209" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="209" fontId="21" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="209" fontId="21" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="209" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="209" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="209" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="31">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
-    <cellStyle name="Comma 2" xfId="4"/>
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Good" xfId="5" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Neutral" xfId="7" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="8"/>
-    <cellStyle name="Normal 2" xfId="9"/>
-    <cellStyle name="Normal 4" xfId="10"/>
-    <cellStyle name="Normal 4 2" xfId="11"/>
-    <cellStyle name="Normal 8" xfId="12"/>
-    <cellStyle name="Normal 9 2" xfId="13"/>
-    <cellStyle name="Normale_B2020" xfId="14"/>
-    <cellStyle name="Percent 2" xfId="15"/>
-    <cellStyle name="Percent 2 2" xfId="16"/>
-    <cellStyle name="Percent 3" xfId="17"/>
-    <cellStyle name="Percent 3 2" xfId="18"/>
-    <cellStyle name="Percent 3 3" xfId="19"/>
-    <cellStyle name="Percent 3 4" xfId="20"/>
-    <cellStyle name="Percent 4" xfId="21"/>
-    <cellStyle name="Percent 4 2" xfId="22"/>
-    <cellStyle name="Percent 4 3" xfId="23"/>
-    <cellStyle name="Percent 4 4" xfId="24"/>
-    <cellStyle name="Percent 5" xfId="25"/>
-    <cellStyle name="Percent 5 2" xfId="26"/>
-    <cellStyle name="Percent 6" xfId="27"/>
-    <cellStyle name="Percent 6 2" xfId="28"/>
-    <cellStyle name="Percent 7" xfId="29"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="30"/>
+    <cellStyle name="Normal 10" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 4" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 8" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 9 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normale_B2020" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Percent 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Percent 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Percent 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 3" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 4 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 5 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 6 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Percent 7" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4737,47 +4789,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="25" customWidth="1"/>
     <col min="12" max="12" width="7" style="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" customWidth="1"/>
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P2" s="58"/>
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
@@ -4789,7 +4841,7 @@
       <c r="X2" s="58"/>
       <c r="Y2" s="54"/>
     </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
         <v>43</v>
       </c>
@@ -4812,7 +4864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>49</v>
       </c>
@@ -4846,7 +4898,7 @@
       <c r="W4" s="109"/>
       <c r="X4" s="109"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P5" s="110" t="s">
         <v>8</v>
       </c>
@@ -4875,7 +4927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
       <c r="B6" s="34" t="s">
         <v>57</v>
@@ -4927,7 +4979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="33" t="s">
         <v>66</v>
@@ -4961,11 +5013,11 @@
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E10" s="6" t="s">
         <v>0</v>
       </c>
@@ -4988,7 +5040,7 @@
       <c r="W10" s="109"/>
       <c r="X10" s="109"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -5057,7 +5109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
         <v>73</v>
       </c>
@@ -5122,7 +5174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>80</v>
       </c>
@@ -5161,7 +5213,7 @@
       <c r="W13" s="112"/>
       <c r="X13" s="112"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="str">
         <f>R14</f>
         <v>ELCTNCOA01</v>
@@ -5221,7 +5273,7 @@
       <c r="W14" s="114"/>
       <c r="X14" s="114"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="str">
         <f>R15</f>
         <v>ELCTNOIL01</v>
@@ -5277,7 +5329,7 @@
       <c r="W15" s="116"/>
       <c r="X15" s="116"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="str">
         <f>R16</f>
         <v>ELCTNGAS01</v>
@@ -5338,7 +5390,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E17" s="25">
         <v>2010</v>
       </c>
@@ -5367,7 +5419,7 @@
       <c r="W17" s="114"/>
       <c r="X17" s="114"/>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="E18" s="25">
         <v>2015</v>
       </c>
@@ -5396,7 +5448,7 @@
       <c r="W18" s="114"/>
       <c r="X18" s="114"/>
     </row>
-    <row r="19" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="25">
         <v>2020</v>
       </c>
@@ -5425,7 +5477,7 @@
       <c r="W19" s="114"/>
       <c r="X19" s="114"/>
     </row>
-    <row r="20" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
         <v>249</v>
       </c>
@@ -5481,7 +5533,7 @@
       <c r="W20" s="114"/>
       <c r="X20" s="114"/>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="str">
         <f>R17</f>
         <v>ELCRNBIO01</v>
@@ -5539,7 +5591,7 @@
       <c r="W21" s="114"/>
       <c r="X21" s="114"/>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="str">
         <f>R18</f>
         <v>ELCRNHYD01</v>
@@ -5585,7 +5637,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="str">
         <f>R19</f>
         <v>ELCRNWIN01</v>
@@ -5633,7 +5685,7 @@
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="str">
         <f>R20</f>
         <v>ELCRNSOL01</v>
@@ -5679,12 +5731,43 @@
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B25" s="27"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="N25" s="31"/>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F25" s="25">
+        <v>2006</v>
+      </c>
+      <c r="G25" s="31">
+        <v>1</v>
+      </c>
+      <c r="H25" s="31">
+        <v>0.35</v>
+      </c>
+      <c r="I25" s="25">
+        <v>1500</v>
+      </c>
+      <c r="J25" s="25">
+        <v>35</v>
+      </c>
+      <c r="K25" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="25">
+        <v>20</v>
+      </c>
+      <c r="M25" s="25">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="N25" s="31">
+        <v>0.3</v>
+      </c>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="27"/>
@@ -5695,10 +5778,45 @@
       <c r="W25" s="8"/>
       <c r="X25" s="8"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="25">
+        <v>2006</v>
+      </c>
+      <c r="G26" s="25">
+        <v>1</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="I26" s="25">
+        <v>3000</v>
+      </c>
+      <c r="J26" s="25">
+        <v>60</v>
+      </c>
+      <c r="L26" s="25">
+        <v>15</v>
+      </c>
+      <c r="M26" s="25">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="N26" s="25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
     </row>
   </sheetData>
@@ -5711,47 +5829,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z41"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="25" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="25" customWidth="1"/>
     <col min="13" max="13" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" customWidth="1"/>
+    <col min="20" max="20" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" customWidth="1"/>
+    <col min="25" max="25" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="P2" s="58"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q2" s="58"/>
       <c r="R2" s="58"/>
       <c r="S2" s="58"/>
@@ -5760,9 +5878,10 @@
       <c r="V2" s="58"/>
       <c r="W2" s="58"/>
       <c r="X2" s="58"/>
-      <c r="Y2" s="54"/>
-    </row>
-    <row r="3" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="54"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
         <v>43</v>
       </c>
@@ -5785,7 +5904,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B4" s="51" t="s">
         <v>123</v>
       </c>
@@ -5808,48 +5927,48 @@
       <c r="I4" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="108" t="s">
+      <c r="Q4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="109"/>
+      <c r="R4" s="108"/>
       <c r="S4" s="109"/>
       <c r="T4" s="109"/>
       <c r="U4" s="109"/>
       <c r="V4" s="109"/>
       <c r="W4" s="109"/>
       <c r="X4" s="109"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="P5" s="110" t="s">
+      <c r="Y4" s="109"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Q5" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="111" t="s">
+      <c r="R5" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="110" t="s">
+      <c r="S5" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="110" t="s">
+      <c r="T5" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="110" t="s">
+      <c r="U5" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="110" t="s">
+      <c r="V5" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="110" t="s">
+      <c r="W5" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="W5" s="110" t="s">
+      <c r="X5" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="110" t="s">
+      <c r="Y5" s="110" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
       <c r="B6" s="34"/>
       <c r="C6" s="56"/>
@@ -5863,35 +5982,36 @@
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
-      <c r="P6" s="112" t="s">
+      <c r="P6" s="26"/>
+      <c r="Q6" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="Q6" s="112" t="s">
+      <c r="R6" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="112" t="s">
+      <c r="S6" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="112" t="s">
+      <c r="T6" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="T6" s="112" t="s">
+      <c r="U6" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="112" t="s">
+      <c r="V6" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="V6" s="112" t="s">
+      <c r="W6" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="W6" s="112" t="s">
+      <c r="X6" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="112" t="s">
+      <c r="Y6" s="112" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
       <c r="B7" s="33"/>
       <c r="C7" s="50"/>
@@ -5905,21 +6025,30 @@
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="P9" s="3"/>
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E10" s="6" t="s">
         <v>0</v>
       </c>
@@ -5929,20 +6058,20 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="5"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="108" t="s">
+      <c r="P10" s="26"/>
+      <c r="Q10" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="109"/>
+      <c r="R10" s="108"/>
       <c r="S10" s="109"/>
       <c r="T10" s="109"/>
       <c r="U10" s="109"/>
       <c r="V10" s="109"/>
       <c r="W10" s="109"/>
       <c r="X10" s="109"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y10" s="109"/>
+    </row>
+    <row r="11" spans="1:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
@@ -5980,38 +6109,41 @@
         <v>71</v>
       </c>
       <c r="N11" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="O11" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="29"/>
-      <c r="P11" s="110" t="s">
+      <c r="P11" s="29"/>
+      <c r="Q11" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="111" t="s">
+      <c r="R11" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="R11" s="110" t="s">
+      <c r="S11" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="S11" s="110" t="s">
+      <c r="T11" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="T11" s="110" t="s">
+      <c r="U11" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="U11" s="110" t="s">
+      <c r="V11" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="110" t="s">
+      <c r="W11" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="110" t="s">
+      <c r="X11" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="X11" s="110" t="s">
+      <c r="Y11" s="110" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="B12" s="73" t="s">
         <v>73</v>
       </c>
@@ -6044,39 +6176,40 @@
       <c r="M12" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="61" t="s">
+      <c r="N12" s="61"/>
+      <c r="O12" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="113" t="s">
+      <c r="P12" s="26"/>
+      <c r="Q12" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="113" t="s">
+      <c r="R12" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="R12" s="113" t="s">
+      <c r="S12" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="113" t="s">
+      <c r="T12" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="113" t="s">
+      <c r="U12" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="113" t="s">
+      <c r="V12" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="V12" s="113" t="s">
+      <c r="W12" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="W12" s="113" t="s">
+      <c r="X12" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="X12" s="113" t="s">
+      <c r="Y12" s="113" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="72" t="s">
         <v>80</v>
       </c>
@@ -6102,11 +6235,11 @@
         <v>85</v>
       </c>
       <c r="N13" s="63"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="112" t="s">
+      <c r="O13" s="63"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" s="112"/>
       <c r="R13" s="112"/>
       <c r="S13" s="112"/>
       <c r="T13" s="112"/>
@@ -6114,108 +6247,225 @@
       <c r="V13" s="112"/>
       <c r="W13" s="112"/>
       <c r="X13" s="112"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
+      <c r="Y13" s="112"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="30">
+        <v>2020</v>
+      </c>
+      <c r="G14" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="31">
+        <v>1</v>
+      </c>
+      <c r="I14" s="25">
+        <v>5000</v>
+      </c>
+      <c r="J14" s="31">
+        <v>500</v>
+      </c>
+      <c r="K14" s="31">
+        <v>50</v>
+      </c>
+      <c r="L14" s="25">
+        <v>30</v>
+      </c>
+      <c r="M14" s="25">
+        <v>1</v>
+      </c>
+      <c r="O14" s="31"/>
+      <c r="Q14" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
+      <c r="S14" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="N15" s="31"/>
-      <c r="P15" s="8"/>
+      <c r="Y14" s="8"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2020</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="31">
+        <v>1</v>
+      </c>
+      <c r="I15" s="27">
+        <v>5000</v>
+      </c>
+      <c r="J15" s="32">
+        <v>500</v>
+      </c>
+      <c r="K15" s="32">
+        <v>50</v>
+      </c>
+      <c r="L15" s="25">
+        <v>30</v>
+      </c>
+      <c r="M15" s="25">
+        <v>1</v>
+      </c>
+      <c r="N15" s="25">
+        <v>3</v>
+      </c>
+      <c r="O15" s="31"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
+      <c r="S15" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="P16" s="8"/>
+      <c r="Y15" s="8"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="25">
+        <v>2020</v>
+      </c>
+      <c r="G16" s="31">
+        <v>0.4</v>
+      </c>
+      <c r="H16" s="31">
+        <v>1</v>
+      </c>
+      <c r="I16" s="27">
+        <v>6000</v>
+      </c>
+      <c r="J16" s="32">
+        <v>500</v>
+      </c>
+      <c r="K16" s="32">
+        <v>50</v>
+      </c>
+      <c r="L16" s="25">
+        <v>30</v>
+      </c>
+      <c r="M16" s="25">
+        <v>1</v>
+      </c>
+      <c r="N16" s="25">
+        <v>1</v>
+      </c>
+      <c r="O16" s="31"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="8"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="P17" s="8"/>
+      <c r="O17" s="31"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="23"/>
       <c r="U17" s="8"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="9"/>
       <c r="X17" s="8"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="8"/>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="P18" s="8"/>
+      <c r="O18" s="31"/>
       <c r="Q18" s="8"/>
-      <c r="W18" s="8"/>
+      <c r="R18" s="8"/>
       <c r="X18" s="8"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="8"/>
+    </row>
+    <row r="19" spans="2:25" x14ac:dyDescent="0.25">
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="P19" s="8"/>
+      <c r="O19" s="31"/>
       <c r="Q19" s="8"/>
-      <c r="W19" s="8"/>
+      <c r="R19" s="8"/>
       <c r="X19" s="8"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="8"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="K20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="P20" s="8"/>
+      <c r="O20" s="31"/>
       <c r="Q20" s="8"/>
-      <c r="W20" s="8"/>
+      <c r="R20" s="8"/>
       <c r="X20" s="8"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P21" s="8"/>
+      <c r="Y20" s="8"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
@@ -6224,9 +6474,9 @@
       <c r="V21" s="8"/>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P22" s="8"/>
+      <c r="Y21" s="8"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
@@ -6235,9 +6485,9 @@
       <c r="V22" s="8"/>
       <c r="W22" s="8"/>
       <c r="X22" s="8"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P23" s="8"/>
+      <c r="Y22" s="8"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -6246,9 +6496,9 @@
       <c r="V23" s="8"/>
       <c r="W23" s="8"/>
       <c r="X23" s="8"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="P24" s="8"/>
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
@@ -6257,11 +6507,12 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
       <c r="X24" s="8"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="Y24" s="8"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
     </row>
   </sheetData>
@@ -6270,38 +6521,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="25"/>
+    <col min="20" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="24" t="s">
         <v>43</v>
       </c>
@@ -6319,7 +6570,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -6341,7 +6592,7 @@
       <c r="R2" s="109"/>
       <c r="S2" s="109"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K3" s="110" t="s">
         <v>8</v>
       </c>
@@ -6370,7 +6621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2"/>
       <c r="K4" s="112" t="s">
         <v>62</v>
@@ -6400,7 +6651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K5" s="9"/>
       <c r="L5" s="8"/>
       <c r="M5" s="9"/>
@@ -6411,7 +6662,7 @@
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F7" s="6" t="s">
         <v>0</v>
       </c>
@@ -6428,7 +6679,7 @@
       <c r="R7" s="116"/>
       <c r="S7" s="116"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
@@ -6482,7 +6733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="72" t="s">
         <v>73</v>
@@ -6533,7 +6784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="72" t="s">
         <v>80</v>
@@ -6564,7 +6815,7 @@
       <c r="R10" s="119"/>
       <c r="S10" s="119"/>
     </row>
-    <row r="11" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6585,7 +6836,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
-    <row r="12" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6606,7 +6857,7 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6627,7 +6878,7 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
     </row>
-    <row r="14" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6648,7 +6899,7 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
     </row>
-    <row r="15" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6669,7 +6920,7 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6690,7 +6941,7 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
     </row>
-    <row r="17" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
@@ -6711,7 +6962,7 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
     </row>
-    <row r="18" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -6732,7 +6983,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
     </row>
-    <row r="19" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6753,7 +7004,7 @@
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
     </row>
-    <row r="20" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -6774,7 +7025,7 @@
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
     </row>
-    <row r="21" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6795,7 +7046,7 @@
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
     </row>
-    <row r="22" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
@@ -6816,7 +7067,7 @@
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
     </row>
-    <row r="23" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -6837,7 +7088,7 @@
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
     </row>
-    <row r="24" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6858,7 +7109,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="8"/>
     </row>
-    <row r="25" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="80"/>
       <c r="C25" s="9"/>
@@ -6879,7 +7130,7 @@
       <c r="R25" s="8"/>
       <c r="S25" s="8"/>
     </row>
-    <row r="26" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
@@ -6900,7 +7151,7 @@
       <c r="R26" s="8"/>
       <c r="S26" s="8"/>
     </row>
-    <row r="27" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -6921,16 +7172,16 @@
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
   </sheetData>
@@ -6940,44 +7191,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U48"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="16" width="75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
         <v>43</v>
       </c>
@@ -7000,7 +7251,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>133</v>
       </c>
@@ -7023,7 +7274,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="51" t="s">
         <v>134</v>
       </c>
@@ -7057,7 +7308,7 @@
       <c r="T5" s="109"/>
       <c r="U5" s="109"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="51" t="s">
         <v>92</v>
@@ -7110,7 +7361,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -7151,7 +7402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
@@ -7174,7 +7425,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
         <v>0</v>
       </c>
@@ -7196,7 +7447,7 @@
       <c r="T11" s="116"/>
       <c r="U11" s="116"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>1</v>
       </c>
@@ -7255,7 +7506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="43" t="s">
         <v>73</v>
       </c>
@@ -7312,7 +7563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="42" t="s">
         <v>80</v>
       </c>
@@ -7345,7 +7596,7 @@
       <c r="T14" s="112"/>
       <c r="U14" s="112"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="str">
         <f t="shared" ref="B15:B38" si="0">O15</f>
         <v>CSHNCOA1</v>
@@ -7397,7 +7648,7 @@
       <c r="T15" s="114"/>
       <c r="U15" s="114"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="str">
         <f t="shared" si="0"/>
         <v>CSHNGAS1</v>
@@ -7447,7 +7698,7 @@
       <c r="T16" s="114"/>
       <c r="U16" s="114"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="str">
         <f t="shared" si="0"/>
         <v>CSHNOIL1</v>
@@ -7497,7 +7748,7 @@
       <c r="T17" s="114"/>
       <c r="U17" s="114"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="str">
         <f t="shared" si="0"/>
         <v>CSHNBIO1</v>
@@ -7547,7 +7798,7 @@
       <c r="T18" s="114"/>
       <c r="U18" s="114"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="35" t="str">
         <f>O19</f>
         <v>CSHNSOL1</v>
@@ -7597,7 +7848,7 @@
       <c r="T19" s="114"/>
       <c r="U19" s="114"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="35" t="str">
         <f t="shared" si="0"/>
         <v>CSHNELC1</v>
@@ -7647,7 +7898,7 @@
       <c r="T20" s="114"/>
       <c r="U20" s="114"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="87" t="str">
         <f t="shared" si="0"/>
         <v>CAPNELC1</v>
@@ -7695,7 +7946,7 @@
       <c r="T21" s="114"/>
       <c r="U21" s="114"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="str">
         <f t="shared" si="0"/>
         <v>COTNCOA1</v>
@@ -7743,7 +7994,7 @@
       <c r="T22" s="114"/>
       <c r="U22" s="114"/>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="35" t="str">
         <f t="shared" si="0"/>
         <v>COTNGAS1</v>
@@ -7791,7 +8042,7 @@
       <c r="T23" s="114"/>
       <c r="U23" s="114"/>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="35" t="str">
         <f t="shared" si="0"/>
         <v>COTNOIL1</v>
@@ -7838,7 +8089,7 @@
       <c r="T24" s="114"/>
       <c r="U24" s="114"/>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="35" t="str">
         <f t="shared" si="0"/>
         <v>COTNBIO1</v>
@@ -7885,7 +8136,7 @@
       <c r="T25" s="114"/>
       <c r="U25" s="114"/>
     </row>
-    <row r="26" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="98" t="str">
         <f t="shared" si="0"/>
         <v>COTNELC1</v>
@@ -7933,7 +8184,7 @@
       <c r="T26" s="121"/>
       <c r="U26" s="121"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="str">
         <f t="shared" si="0"/>
         <v>RSHNCOA1</v>
@@ -7983,7 +8234,7 @@
       <c r="T27" s="116"/>
       <c r="U27" s="116"/>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="35" t="str">
         <f t="shared" si="0"/>
         <v>RSHNGAS1</v>
@@ -8034,7 +8285,7 @@
       <c r="T28" s="116"/>
       <c r="U28" s="116"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="str">
         <f t="shared" si="0"/>
         <v>RSHNOIL1</v>
@@ -8085,7 +8336,7 @@
       <c r="T29" s="116"/>
       <c r="U29" s="116"/>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="str">
         <f t="shared" si="0"/>
         <v>RSHNBIO1</v>
@@ -8136,7 +8387,7 @@
       <c r="T30" s="116"/>
       <c r="U30" s="116"/>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="str">
         <f>O31</f>
         <v>RSHNSOL1</v>
@@ -8187,7 +8438,7 @@
       <c r="T31" s="116"/>
       <c r="U31" s="116"/>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" s="35" t="str">
         <f t="shared" si="0"/>
         <v>RSHNELC1</v>
@@ -8238,7 +8489,7 @@
       <c r="T32" s="116"/>
       <c r="U32" s="116"/>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="87" t="str">
         <f t="shared" si="0"/>
         <v>RAPNELC1</v>
@@ -8287,7 +8538,7 @@
       <c r="T33" s="116"/>
       <c r="U33" s="116"/>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="str">
         <f t="shared" si="0"/>
         <v>ROTNCOA1</v>
@@ -8336,7 +8587,7 @@
       <c r="T34" s="116"/>
       <c r="U34" s="116"/>
     </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="35" t="str">
         <f t="shared" si="0"/>
         <v>ROTNGAS1</v>
@@ -8385,7 +8636,7 @@
       <c r="T35" s="116"/>
       <c r="U35" s="116"/>
     </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="35" t="str">
         <f t="shared" si="0"/>
         <v>ROTNOIL1</v>
@@ -8433,7 +8684,7 @@
       <c r="T36" s="116"/>
       <c r="U36" s="116"/>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="35" t="str">
         <f t="shared" si="0"/>
         <v>ROTNBIO1</v>
@@ -8481,7 +8732,7 @@
       <c r="T37" s="116"/>
       <c r="U37" s="116"/>
     </row>
-    <row r="38" spans="2:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="98" t="str">
         <f t="shared" si="0"/>
         <v>ROTNELC1</v>
@@ -8530,7 +8781,7 @@
       <c r="T38" s="116"/>
       <c r="U38" s="116"/>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -8543,7 +8794,7 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
       <c r="D40" s="54"/>
@@ -8556,7 +8807,7 @@
       <c r="K40" s="54"/>
       <c r="L40" s="54"/>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B41" s="54"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8569,7 +8820,7 @@
       <c r="K41" s="54"/>
       <c r="L41" s="54"/>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
       <c r="D42" s="54"/>
@@ -8582,7 +8833,7 @@
       <c r="K42" s="54"/>
       <c r="L42" s="54"/>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
       <c r="D43" s="54"/>
@@ -8595,7 +8846,7 @@
       <c r="K43" s="54"/>
       <c r="L43" s="54"/>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="54"/>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
@@ -8608,7 +8859,7 @@
       <c r="K44" s="54"/>
       <c r="L44" s="54"/>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="54"/>
       <c r="C45" s="54"/>
       <c r="D45" s="54"/>
@@ -8621,7 +8872,7 @@
       <c r="K45" s="54"/>
       <c r="L45" s="54"/>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="54"/>
       <c r="C46" s="54"/>
       <c r="D46" s="54"/>
@@ -8634,7 +8885,7 @@
       <c r="K46" s="54"/>
       <c r="L46" s="54"/>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="54"/>
       <c r="C47" s="54"/>
       <c r="D47" s="54"/>
@@ -8647,7 +8898,7 @@
       <c r="K47" s="54"/>
       <c r="L47" s="54"/>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="54"/>
       <c r="C48" s="54"/>
       <c r="D48" s="54"/>
@@ -8667,40 +8918,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="2" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="78.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="78.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="49" t="s">
         <v>43</v>
       </c>
@@ -8724,7 +8975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
         <v>99</v>
       </c>
@@ -8759,7 +9010,7 @@
       <c r="U2" s="109"/>
       <c r="V2" s="109"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N3" s="110" t="s">
         <v>8</v>
       </c>
@@ -8788,7 +9039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="8" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="8" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -8823,23 +9074,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="50"/>
       <c r="C5" s="50"/>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="M5" s="54"/>
-      <c r="N5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="N5" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
@@ -8860,7 +9119,7 @@
       <c r="U8" s="116"/>
       <c r="V8" s="116"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
@@ -8923,7 +9182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="60" t="s">
         <v>73</v>
       </c>
@@ -8984,7 +9243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="59" t="s">
         <v>80</v>
       </c>
@@ -9025,7 +9284,7 @@
       <c r="U11" s="124"/>
       <c r="V11" s="124"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>P12</f>
         <v>TCANGAS1</v>
@@ -9083,7 +9342,7 @@
       </c>
       <c r="V12" s="114"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f t="shared" ref="B13:B23" si="0">P13</f>
         <v>TCANDSL1</v>
@@ -9139,7 +9398,7 @@
       </c>
       <c r="V13" s="114"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>TCANLPG1</v>
@@ -9195,7 +9454,7 @@
       </c>
       <c r="V14" s="114"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>TCANGSL1</v>
@@ -9251,7 +9510,7 @@
       </c>
       <c r="V15" s="114"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f>P16</f>
         <v>TCARNBIO1</v>
@@ -9307,7 +9566,7 @@
       </c>
       <c r="V16" s="114"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="86" t="str">
         <f t="shared" si="0"/>
         <v>TCANELC1</v>
@@ -9363,7 +9622,7 @@
       </c>
       <c r="V17" s="125"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>TPUNGAS1</v>
@@ -9418,7 +9677,7 @@
       </c>
       <c r="V18" s="114"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>TPUNDSL1</v>
@@ -9473,7 +9732,7 @@
       </c>
       <c r="V19" s="116"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>TPUNLPG1</v>
@@ -9528,7 +9787,7 @@
       </c>
       <c r="V20" s="116"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>TPUNGSL1</v>
@@ -9583,7 +9842,7 @@
       </c>
       <c r="V21" s="116"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f>P22</f>
         <v>TPUBNBIO1</v>
@@ -9638,7 +9897,7 @@
       </c>
       <c r="V22" s="116"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>TPUNELC1</v>
@@ -9693,8 +9952,81 @@
       </c>
       <c r="V23" s="116"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F25" s="67"/>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24">
+        <v>2010</v>
+      </c>
+      <c r="F24">
+        <v>3.15E-2</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>200</v>
+      </c>
+      <c r="I24">
+        <v>37.5</v>
+      </c>
+      <c r="J24">
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="K24">
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <v>1E-3</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q24" s="109" t="s">
+        <v>268</v>
+      </c>
+      <c r="R24" s="116" t="s">
+        <v>255</v>
+      </c>
+      <c r="S24" s="116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25">
+        <v>2010</v>
+      </c>
+      <c r="F25" s="67">
+        <v>1</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q25" s="109" t="s">
+        <v>270</v>
+      </c>
+      <c r="R25" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" s="109" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9704,7 +10036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -9714,19 +10046,19 @@
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="106"/>
+    <col min="2" max="12" width="9.109375" style="106"/>
     <col min="13" max="13" width="5" style="106" customWidth="1"/>
     <col min="14" max="15" width="2" style="106" bestFit="1" customWidth="1"/>
-    <col min="16" max="26" width="9.140625" style="106"/>
+    <col min="16" max="26" width="9.109375" style="106"/>
     <col min="27" max="27" width="2" style="106" customWidth="1"/>
-    <col min="28" max="28" width="2.28515625" style="106" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="106"/>
+    <col min="28" max="28" width="2.33203125" style="106" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.109375" style="106"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" s="107" t="s">
         <v>204</v>
       </c>
@@ -9739,9 +10071,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="P2" r:id="rId2"/>
-    <hyperlink ref="AC2" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="P2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="AC2" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
